--- a/Jogos_do_Dia/2024-04-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -151,12 +151,12 @@
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
+    <t>England EFL League Two</t>
+  </si>
+  <si>
     <t>England EFL League One</t>
   </si>
   <si>
-    <t>England EFL League Two</t>
-  </si>
-  <si>
     <t>England Championship</t>
   </si>
   <si>
@@ -181,69 +181,69 @@
     <t>Maribor</t>
   </si>
   <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
     <t>Cheltenham Town</t>
   </si>
   <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Plymouth Argyle</t>
+  </si>
+  <si>
+    <t>Preston North End</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Pontypridd Town AFC</t>
+  </si>
+  <si>
+    <t>The New Saints</t>
   </si>
   <si>
     <t>Harrogate Town</t>
   </si>
   <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Pontypridd Town AFC</t>
-  </si>
-  <si>
-    <t>Preston North End</t>
-  </si>
-  <si>
-    <t>Plymouth Argyle</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
     <t>Leeds United</t>
   </si>
   <si>
@@ -253,67 +253,67 @@
     <t>Mura</t>
   </si>
   <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
     <t>Carlisle United</t>
   </si>
   <si>
-    <t>Stockport County</t>
-  </si>
-  <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Walsall</t>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Aberystwyth Town</t>
+  </si>
+  <si>
+    <t>Bala Town</t>
   </si>
   <si>
     <t>Grimsby Town</t>
-  </si>
-  <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Norwich City</t>
-  </si>
-  <si>
-    <t>Bala Town</t>
-  </si>
-  <si>
-    <t>Wigan Athletic</t>
-  </si>
-  <si>
-    <t>Coventry City</t>
-  </si>
-  <si>
-    <t>Aberystwyth Town</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>Queens Park Rangers</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
   </si>
   <si>
     <t>Sunderland</t>
@@ -844,13 +844,13 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="K2">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="M2">
         <v>1.51</v>
@@ -1002,10 +1002,10 @@
         <v>3.64</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>55</v>
@@ -1097,120 +1097,120 @@
         <v>79</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="I4">
+        <v>2.2</v>
+      </c>
+      <c r="J4">
+        <v>4.2</v>
+      </c>
+      <c r="K4">
+        <v>3.6</v>
+      </c>
+      <c r="L4">
+        <v>1.83</v>
+      </c>
+      <c r="M4">
+        <v>1.3</v>
+      </c>
+      <c r="N4">
+        <v>3.4</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>1.22</v>
+      </c>
+      <c r="R4">
         <v>4.33</v>
       </c>
-      <c r="J4">
-        <v>1.83</v>
-      </c>
-      <c r="K4">
-        <v>3.5</v>
-      </c>
-      <c r="L4">
-        <v>4.1</v>
-      </c>
-      <c r="M4">
-        <v>1.53</v>
-      </c>
-      <c r="N4">
-        <v>2.38</v>
-      </c>
-      <c r="O4">
-        <v>1.09</v>
-      </c>
-      <c r="P4">
-        <v>7.5</v>
-      </c>
-      <c r="Q4">
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>1.91</v>
+      </c>
+      <c r="U4">
+        <v>1.62</v>
+      </c>
+      <c r="V4">
+        <v>2.2</v>
+      </c>
+      <c r="W4">
+        <v>2.25</v>
+      </c>
+      <c r="X4">
+        <v>1.2</v>
+      </c>
+      <c r="Y4">
+        <v>1.17</v>
+      </c>
+      <c r="Z4">
+        <v>1.11</v>
+      </c>
+      <c r="AA4">
+        <v>1.8</v>
+      </c>
+      <c r="AB4">
         <v>1.5</v>
       </c>
-      <c r="R4">
-        <v>2.6</v>
-      </c>
-      <c r="S4">
-        <v>2.01</v>
-      </c>
-      <c r="T4">
-        <v>1.81</v>
-      </c>
-      <c r="U4">
-        <v>2.1</v>
-      </c>
-      <c r="V4">
-        <v>1.67</v>
-      </c>
-      <c r="W4">
-        <v>1.3</v>
-      </c>
-      <c r="X4">
-        <v>1.3</v>
-      </c>
-      <c r="Y4">
-        <v>1.68</v>
-      </c>
-      <c r="Z4">
-        <v>1.16</v>
-      </c>
-      <c r="AA4">
-        <v>0.57</v>
-      </c>
-      <c r="AB4">
-        <v>1.4</v>
-      </c>
       <c r="AC4">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="AD4">
-        <v>2.5</v>
+        <v>2.97</v>
       </c>
       <c r="AE4">
-        <v>2.05</v>
+        <v>2.53</v>
       </c>
       <c r="AF4">
         <v>8.5</v>
       </c>
       <c r="AG4">
-        <v>2.05</v>
+        <v>1.69</v>
       </c>
       <c r="AH4">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AI4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AJ4">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AK4">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="AL4">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AM4">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AN4">
-        <v>2.45</v>
+        <v>1.99</v>
       </c>
       <c r="AO4">
+        <v>1.73</v>
+      </c>
+      <c r="AP4">
+        <v>2.6</v>
+      </c>
+      <c r="AQ4">
         <v>1.44</v>
-      </c>
-      <c r="AP4">
-        <v>3.5</v>
-      </c>
-      <c r="AQ4">
-        <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:43">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <v>45391</v>
@@ -1219,7 +1219,7 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -1228,120 +1228,120 @@
         <v>80</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H5">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="J5">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="K5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>1.82</v>
+        <v>3</v>
       </c>
       <c r="M5">
+        <v>1.5</v>
+      </c>
+      <c r="N5">
+        <v>2.5</v>
+      </c>
+      <c r="O5">
+        <v>1.07</v>
+      </c>
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>1.4</v>
+      </c>
+      <c r="R5">
+        <v>2.9</v>
+      </c>
+      <c r="S5">
+        <v>1.91</v>
+      </c>
+      <c r="T5">
+        <v>1.83</v>
+      </c>
+      <c r="U5">
+        <v>1.83</v>
+      </c>
+      <c r="V5">
+        <v>1.83</v>
+      </c>
+      <c r="W5">
+        <v>1.36</v>
+      </c>
+      <c r="X5">
         <v>1.3</v>
       </c>
-      <c r="N5">
-        <v>3.4</v>
-      </c>
-      <c r="O5">
-        <v>1.03</v>
-      </c>
-      <c r="P5">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <v>1.22</v>
-      </c>
-      <c r="R5">
-        <v>4.33</v>
-      </c>
-      <c r="S5">
+      <c r="Y5">
+        <v>1.57</v>
+      </c>
+      <c r="Z5">
         <v>1.9</v>
       </c>
-      <c r="T5">
-        <v>1.91</v>
-      </c>
-      <c r="U5">
-        <v>1.62</v>
-      </c>
-      <c r="V5">
-        <v>2.2</v>
-      </c>
-      <c r="W5">
-        <v>2.25</v>
-      </c>
-      <c r="X5">
-        <v>1.2</v>
-      </c>
-      <c r="Y5">
-        <v>1.17</v>
-      </c>
-      <c r="Z5">
-        <v>1.11</v>
-      </c>
       <c r="AA5">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AB5">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AC5">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AD5">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="AE5">
-        <v>2.53</v>
+        <v>1.69</v>
       </c>
       <c r="AF5">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG5">
-        <v>1.69</v>
+        <v>2.54</v>
       </c>
       <c r="AH5">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AI5">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="AJ5">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AK5">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AL5">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="AM5">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AN5">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="AO5">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AP5">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <v>45391</v>
@@ -1350,7 +1350,7 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -1359,115 +1359,115 @@
         <v>81</v>
       </c>
       <c r="G6">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="H6">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="I6">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="J6">
-        <v>2.3</v>
+        <v>1.48</v>
       </c>
       <c r="K6">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L6">
-        <v>2.95</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="O6">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q6">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="R6">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="S6">
-        <v>2.01</v>
+        <v>1.39</v>
       </c>
       <c r="T6">
-        <v>1.81</v>
+        <v>2.51</v>
       </c>
       <c r="U6">
+        <v>1.57</v>
+      </c>
+      <c r="V6">
+        <v>2.2</v>
+      </c>
+      <c r="W6">
+        <v>1.11</v>
+      </c>
+      <c r="X6">
+        <v>1.14</v>
+      </c>
+      <c r="Y6">
+        <v>2.7</v>
+      </c>
+      <c r="Z6">
+        <v>2.25</v>
+      </c>
+      <c r="AA6">
+        <v>1.57</v>
+      </c>
+      <c r="AB6">
         <v>1.83</v>
       </c>
-      <c r="V6">
-        <v>1.83</v>
-      </c>
-      <c r="W6">
-        <v>1.36</v>
-      </c>
-      <c r="X6">
+      <c r="AC6">
         <v>1.3</v>
       </c>
-      <c r="Y6">
-        <v>1.57</v>
-      </c>
-      <c r="Z6">
-        <v>1.9</v>
-      </c>
-      <c r="AA6">
-        <v>1.25</v>
-      </c>
-      <c r="AB6">
-        <v>1.41</v>
-      </c>
-      <c r="AC6">
-        <v>1.38</v>
-      </c>
       <c r="AD6">
-        <v>2.79</v>
+        <v>3.13</v>
       </c>
       <c r="AE6">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="AF6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG6">
-        <v>2.54</v>
+        <v>3.26</v>
       </c>
       <c r="AH6">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AI6">
-        <v>3.74</v>
+        <v>4</v>
       </c>
       <c r="AJ6">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AK6">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AL6">
-        <v>1.85</v>
+        <v>1.56</v>
       </c>
       <c r="AM6">
-        <v>1.9</v>
+        <v>2.34</v>
       </c>
       <c r="AN6">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="AO6">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="AP6">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
@@ -1490,120 +1490,120 @@
         <v>82</v>
       </c>
       <c r="G7">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="H7">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I7">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="J7">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="M7">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N7">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="O7">
         <v>1.05</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q7">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="R7">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>1.91</v>
+      </c>
+      <c r="U7">
         <v>1.75</v>
       </c>
-      <c r="T7">
-        <v>1.95</v>
-      </c>
-      <c r="U7">
-        <v>1.62</v>
-      </c>
       <c r="V7">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X7">
         <v>1.25</v>
       </c>
       <c r="Y7">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="Z7">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA7">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="AB7">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AC7">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AD7">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
         <v>45391</v>
@@ -1612,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -1621,120 +1621,120 @@
         <v>83</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="I8">
+        <v>3.25</v>
+      </c>
+      <c r="J8">
+        <v>2.4</v>
+      </c>
+      <c r="K8">
         <v>3.4</v>
       </c>
-      <c r="J8">
-        <v>2.6</v>
-      </c>
-      <c r="K8">
-        <v>3.6</v>
-      </c>
       <c r="L8">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="M8">
         <v>1.36</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="O8">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q8">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="R8">
-        <v>3.75</v>
+        <v>3.99</v>
       </c>
       <c r="S8">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="T8">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U8">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V8">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W8">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X8">
         <v>1.25</v>
       </c>
       <c r="Y8">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="Z8">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="AA8">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AC8">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AD8">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="AE8">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AF8">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG8">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ8">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AK8">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="AL8">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AM8">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="AN8">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="AO8">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AP8">
-        <v>2.15</v>
+        <v>2.44</v>
       </c>
       <c r="AQ8">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2">
         <v>45391</v>
@@ -1743,7 +1743,7 @@
         <v>51</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -1752,120 +1752,120 @@
         <v>84</v>
       </c>
       <c r="G9">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="H9">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="I9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J9">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="M9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N9">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R9">
-        <v>3.99</v>
+        <v>4.2</v>
       </c>
       <c r="S9">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="T9">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V9">
         <v>2.25</v>
       </c>
       <c r="W9">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X9">
         <v>1.25</v>
       </c>
       <c r="Y9">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Z9">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AB9">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AC9">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AD9">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="10" spans="1:43">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2">
         <v>45391</v>
@@ -1883,28 +1883,28 @@
         <v>85</v>
       </c>
       <c r="G10">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="I10">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J10">
         <v>2.5</v>
       </c>
       <c r="K10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="M10">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O10">
         <v>1.05</v>
@@ -1913,25 +1913,25 @@
         <v>10</v>
       </c>
       <c r="Q10">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R10">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="S10">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="T10">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="U10">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="V10">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W10">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X10">
         <v>1.25</v>
@@ -1940,58 +1940,58 @@
         <v>1.57</v>
       </c>
       <c r="Z10">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AA10">
+        <v>1.1</v>
+      </c>
+      <c r="AB10">
+        <v>1.35</v>
+      </c>
+      <c r="AC10">
+        <v>1.3</v>
+      </c>
+      <c r="AD10">
+        <v>2.65</v>
+      </c>
+      <c r="AE10">
+        <v>1.75</v>
+      </c>
+      <c r="AF10">
+        <v>9.1</v>
+      </c>
+      <c r="AG10">
+        <v>2.36</v>
+      </c>
+      <c r="AH10">
+        <v>1.22</v>
+      </c>
+      <c r="AI10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ10">
         <v>1.38</v>
       </c>
-      <c r="AB10">
-        <v>1.19</v>
-      </c>
-      <c r="AC10">
-        <v>1.27</v>
-      </c>
-      <c r="AD10">
-        <v>2.46</v>
-      </c>
-      <c r="AE10">
-        <v>1.67</v>
-      </c>
-      <c r="AF10">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG10">
-        <v>2.66</v>
-      </c>
-      <c r="AH10">
-        <v>1.15</v>
-      </c>
-      <c r="AI10">
-        <v>4.75</v>
-      </c>
-      <c r="AJ10">
-        <v>1.25</v>
-      </c>
       <c r="AK10">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AL10">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AM10">
-        <v>2.55</v>
+        <v>2.26</v>
       </c>
       <c r="AN10">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AO10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP10">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="AQ10">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2005,7 +2005,7 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -2014,120 +2014,120 @@
         <v>86</v>
       </c>
       <c r="G11">
+        <v>1.95</v>
+      </c>
+      <c r="H11">
         <v>2.4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>1.44</v>
+      </c>
+      <c r="K11">
+        <v>4.5</v>
+      </c>
+      <c r="L11">
+        <v>7.5</v>
+      </c>
+      <c r="M11">
+        <v>1.3</v>
+      </c>
+      <c r="N11">
+        <v>3.4</v>
+      </c>
+      <c r="O11">
+        <v>1.02</v>
+      </c>
+      <c r="P11">
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <v>1.22</v>
+      </c>
+      <c r="R11">
+        <v>4.2</v>
+      </c>
+      <c r="S11">
+        <v>1.44</v>
+      </c>
+      <c r="T11">
+        <v>2.59</v>
+      </c>
+      <c r="U11">
+        <v>1.83</v>
+      </c>
+      <c r="V11">
+        <v>1.83</v>
+      </c>
+      <c r="W11">
+        <v>1.1</v>
+      </c>
+      <c r="X11">
+        <v>1.16</v>
+      </c>
+      <c r="Y11">
+        <v>2.75</v>
+      </c>
+      <c r="Z11">
+        <v>1.85</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1.95</v>
+      </c>
+      <c r="AC11">
+        <v>1.16</v>
+      </c>
+      <c r="AD11">
+        <v>3.11</v>
+      </c>
+      <c r="AE11">
+        <v>1.19</v>
+      </c>
+      <c r="AF11">
+        <v>11</v>
+      </c>
+      <c r="AG11">
+        <v>6.09</v>
+      </c>
+      <c r="AH11">
+        <v>1.21</v>
+      </c>
+      <c r="AI11">
+        <v>3.95</v>
+      </c>
+      <c r="AJ11">
+        <v>1.4</v>
+      </c>
+      <c r="AK11">
+        <v>2.7</v>
+      </c>
+      <c r="AL11">
+        <v>1.72</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
         <v>2.2</v>
       </c>
-      <c r="I11">
-        <v>4.75</v>
-      </c>
-      <c r="J11">
-        <v>1.72</v>
-      </c>
-      <c r="K11">
-        <v>3.6</v>
-      </c>
-      <c r="L11">
-        <v>4.6</v>
-      </c>
-      <c r="M11">
-        <v>1.36</v>
-      </c>
-      <c r="N11">
-        <v>2.9</v>
-      </c>
-      <c r="O11">
-        <v>1.04</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>1.3</v>
-      </c>
-      <c r="R11">
-        <v>3.5</v>
-      </c>
-      <c r="S11">
-        <v>1.9</v>
-      </c>
-      <c r="T11">
-        <v>1.91</v>
-      </c>
-      <c r="U11">
-        <v>1.8</v>
-      </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
-      <c r="W11">
-        <v>1.2</v>
-      </c>
-      <c r="X11">
-        <v>1.22</v>
-      </c>
-      <c r="Y11">
-        <v>2.05</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11">
-        <v>0.85</v>
-      </c>
-      <c r="AB11">
-        <v>1.44</v>
-      </c>
-      <c r="AC11">
-        <v>1.24</v>
-      </c>
-      <c r="AD11">
-        <v>2.68</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
         <v>45391</v>
@@ -2145,97 +2145,97 @@
         <v>87</v>
       </c>
       <c r="G12">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H12">
+        <v>1.95</v>
+      </c>
+      <c r="I12">
+        <v>4.33</v>
+      </c>
+      <c r="J12">
+        <v>1.85</v>
+      </c>
+      <c r="K12">
+        <v>3.5</v>
+      </c>
+      <c r="L12">
+        <v>4.2</v>
+      </c>
+      <c r="M12">
+        <v>1.53</v>
+      </c>
+      <c r="N12">
+        <v>2.38</v>
+      </c>
+      <c r="O12">
+        <v>1.09</v>
+      </c>
+      <c r="P12">
+        <v>7.5</v>
+      </c>
+      <c r="Q12">
+        <v>1.5</v>
+      </c>
+      <c r="R12">
+        <v>2.6</v>
+      </c>
+      <c r="S12">
+        <v>1.91</v>
+      </c>
+      <c r="T12">
+        <v>1.8</v>
+      </c>
+      <c r="U12">
         <v>2.1</v>
       </c>
-      <c r="I12">
-        <v>3.75</v>
-      </c>
-      <c r="J12">
-        <v>2.35</v>
-      </c>
-      <c r="K12">
-        <v>3.4</v>
-      </c>
-      <c r="L12">
-        <v>2.8</v>
-      </c>
-      <c r="M12">
+      <c r="V12">
+        <v>1.67</v>
+      </c>
+      <c r="W12">
+        <v>1.3</v>
+      </c>
+      <c r="X12">
+        <v>1.3</v>
+      </c>
+      <c r="Y12">
+        <v>1.68</v>
+      </c>
+      <c r="Z12">
+        <v>1.16</v>
+      </c>
+      <c r="AA12">
+        <v>0.57</v>
+      </c>
+      <c r="AB12">
         <v>1.4</v>
       </c>
-      <c r="N12">
-        <v>2.75</v>
-      </c>
-      <c r="O12">
-        <v>1.05</v>
-      </c>
-      <c r="P12">
-        <v>11</v>
-      </c>
-      <c r="Q12">
-        <v>1.33</v>
-      </c>
-      <c r="R12">
-        <v>3.3</v>
-      </c>
-      <c r="S12">
-        <v>1.85</v>
-      </c>
-      <c r="T12">
-        <v>1.96</v>
-      </c>
-      <c r="U12">
-        <v>1.75</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>1.35</v>
-      </c>
-      <c r="X12">
-        <v>1.25</v>
-      </c>
-      <c r="Y12">
-        <v>1.7</v>
-      </c>
-      <c r="Z12">
-        <v>1.6</v>
-      </c>
-      <c r="AA12">
-        <v>2.1</v>
-      </c>
-      <c r="AB12">
-        <v>1.46</v>
-      </c>
       <c r="AC12">
-        <v>1.39</v>
+        <v>1.1</v>
       </c>
       <c r="AD12">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="AE12">
-        <v>1.54</v>
+        <v>2.05</v>
       </c>
       <c r="AF12">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AG12">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="AH12">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AI12">
         <v>3.4</v>
       </c>
       <c r="AJ12">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AK12">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AL12">
         <v>2</v>
@@ -2244,16 +2244,16 @@
         <v>1.8</v>
       </c>
       <c r="AN12">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AO12">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AP12">
         <v>3.5</v>
       </c>
       <c r="AQ12">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2267,7 +2267,7 @@
         <v>51</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -2276,120 +2276,120 @@
         <v>88</v>
       </c>
       <c r="G13">
+        <v>2.75</v>
+      </c>
+      <c r="H13">
+        <v>2.15</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
         <v>1.95</v>
       </c>
-      <c r="H13">
-        <v>2.4</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>1.42</v>
-      </c>
       <c r="K13">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="L13">
-        <v>7.25</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
+        <v>1.36</v>
+      </c>
+      <c r="N13">
+        <v>2.95</v>
+      </c>
+      <c r="O13">
+        <v>1.04</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>1.25</v>
+      </c>
+      <c r="R13">
+        <v>3.75</v>
+      </c>
+      <c r="S13">
+        <v>1.75</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>1.68</v>
+      </c>
+      <c r="V13">
+        <v>2.15</v>
+      </c>
+      <c r="W13">
         <v>1.3</v>
       </c>
-      <c r="N13">
-        <v>3.4</v>
-      </c>
-      <c r="O13">
-        <v>1.02</v>
-      </c>
-      <c r="P13">
-        <v>15</v>
-      </c>
-      <c r="Q13">
-        <v>1.22</v>
-      </c>
-      <c r="R13">
-        <v>4.2</v>
-      </c>
-      <c r="S13">
-        <v>1.44</v>
-      </c>
-      <c r="T13">
-        <v>2.36</v>
-      </c>
-      <c r="U13">
-        <v>1.83</v>
-      </c>
-      <c r="V13">
-        <v>1.83</v>
-      </c>
-      <c r="W13">
-        <v>1.1</v>
-      </c>
       <c r="X13">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="Y13">
-        <v>2.75</v>
+        <v>1.78</v>
       </c>
       <c r="Z13">
-        <v>1.85</v>
+        <v>1.43</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
       <c r="AB13">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="AC13">
-        <v>1.16</v>
+        <v>0.98</v>
       </c>
       <c r="AD13">
-        <v>3.11</v>
+        <v>2.47</v>
       </c>
       <c r="AE13">
-        <v>1.19</v>
+        <v>1.59</v>
       </c>
       <c r="AF13">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG13">
-        <v>6.09</v>
+        <v>2.78</v>
       </c>
       <c r="AH13">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AI13">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="AJ13">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AK13">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AL13">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AN13">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AO13">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ13">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>45391</v>
@@ -2407,31 +2407,31 @@
         <v>89</v>
       </c>
       <c r="G14">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H14">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="I14">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="J14">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="K14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L14">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="M14">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="N14">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="O14">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P14">
         <v>12</v>
@@ -2443,84 +2443,84 @@
         <v>3.5</v>
       </c>
       <c r="S14">
+        <v>1.8</v>
+      </c>
+      <c r="T14">
         <v>1.91</v>
       </c>
-      <c r="T14">
-        <v>1.9</v>
-      </c>
       <c r="U14">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="X14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y14">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="Z14">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="AB14">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AC14">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AD14">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>45391</v>
@@ -2529,7 +2529,7 @@
         <v>51</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -2538,120 +2538,120 @@
         <v>90</v>
       </c>
       <c r="G15">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="H15">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I15">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="J15">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="K15">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="M15">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="N15">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="O15">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P15">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Q15">
         <v>1.3</v>
       </c>
       <c r="R15">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="S15">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="U15">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V15">
         <v>2.1</v>
       </c>
       <c r="W15">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="X15">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y15">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="Z15">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB15">
+        <v>1.34</v>
+      </c>
+      <c r="AC15">
+        <v>1.2</v>
+      </c>
+      <c r="AD15">
+        <v>2.54</v>
+      </c>
+      <c r="AE15">
+        <v>1.9</v>
+      </c>
+      <c r="AF15">
+        <v>9.4</v>
+      </c>
+      <c r="AG15">
+        <v>2.17</v>
+      </c>
+      <c r="AH15">
+        <v>1.17</v>
+      </c>
+      <c r="AI15">
+        <v>5.02</v>
+      </c>
+      <c r="AJ15">
         <v>1.27</v>
       </c>
-      <c r="AC15">
-        <v>1.18</v>
-      </c>
-      <c r="AD15">
-        <v>2.45</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>1.21</v>
-      </c>
-      <c r="AI15">
-        <v>4.44</v>
-      </c>
-      <c r="AJ15">
-        <v>1.4</v>
-      </c>
       <c r="AK15">
-        <v>2.97</v>
+        <v>3.28</v>
       </c>
       <c r="AL15">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="AM15">
-        <v>2.2</v>
+        <v>2.41</v>
       </c>
       <c r="AN15">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="AO15">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="AP15">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="AQ15">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>45391</v>
@@ -2660,7 +2660,7 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
@@ -2669,120 +2669,120 @@
         <v>91</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Z16">
-        <v>2.86</v>
+        <v>1.48</v>
       </c>
       <c r="AA16">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="AB16">
-        <v>2.76</v>
+        <v>1.36</v>
       </c>
       <c r="AC16">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="AD16">
-        <v>4.26</v>
+        <v>2.48</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>4.84</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>45391</v>
@@ -2791,7 +2791,7 @@
         <v>51</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -2800,115 +2800,115 @@
         <v>92</v>
       </c>
       <c r="G17">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="H17">
         <v>2.15</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>4.36</v>
       </c>
       <c r="K17">
-        <v>3.3</v>
+        <v>3.72</v>
       </c>
       <c r="L17">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="M17">
+        <v>1.38</v>
+      </c>
+      <c r="N17">
+        <v>2.8</v>
+      </c>
+      <c r="O17">
+        <v>1.05</v>
+      </c>
+      <c r="P17">
+        <v>9.5</v>
+      </c>
+      <c r="Q17">
+        <v>1.28</v>
+      </c>
+      <c r="R17">
+        <v>3.55</v>
+      </c>
+      <c r="S17">
+        <v>1.9</v>
+      </c>
+      <c r="T17">
+        <v>1.9</v>
+      </c>
+      <c r="U17">
+        <v>1.8</v>
+      </c>
+      <c r="V17">
+        <v>1.9</v>
+      </c>
+      <c r="W17">
+        <v>2.1</v>
+      </c>
+      <c r="X17">
+        <v>1.22</v>
+      </c>
+      <c r="Y17">
+        <v>1.17</v>
+      </c>
+      <c r="Z17">
+        <v>1.15</v>
+      </c>
+      <c r="AA17">
+        <v>2.1</v>
+      </c>
+      <c r="AB17">
+        <v>1.38</v>
+      </c>
+      <c r="AC17">
+        <v>1.38</v>
+      </c>
+      <c r="AD17">
+        <v>2.76</v>
+      </c>
+      <c r="AE17">
+        <v>2.77</v>
+      </c>
+      <c r="AF17">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG17">
+        <v>1.6</v>
+      </c>
+      <c r="AH17">
+        <v>1.28</v>
+      </c>
+      <c r="AI17">
+        <v>3.69</v>
+      </c>
+      <c r="AJ17">
+        <v>1.51</v>
+      </c>
+      <c r="AK17">
+        <v>2.56</v>
+      </c>
+      <c r="AL17">
+        <v>1.82</v>
+      </c>
+      <c r="AM17">
+        <v>1.98</v>
+      </c>
+      <c r="AN17">
+        <v>2.33</v>
+      </c>
+      <c r="AO17">
+        <v>1.61</v>
+      </c>
+      <c r="AP17">
+        <v>3.12</v>
+      </c>
+      <c r="AQ17">
         <v>1.36</v>
-      </c>
-      <c r="N17">
-        <v>2.95</v>
-      </c>
-      <c r="O17">
-        <v>1.04</v>
-      </c>
-      <c r="P17">
-        <v>11</v>
-      </c>
-      <c r="Q17">
-        <v>1.25</v>
-      </c>
-      <c r="R17">
-        <v>3.75</v>
-      </c>
-      <c r="S17">
-        <v>1.81</v>
-      </c>
-      <c r="T17">
-        <v>2.01</v>
-      </c>
-      <c r="U17">
-        <v>1.68</v>
-      </c>
-      <c r="V17">
-        <v>2.15</v>
-      </c>
-      <c r="W17">
-        <v>1.3</v>
-      </c>
-      <c r="X17">
-        <v>1.25</v>
-      </c>
-      <c r="Y17">
-        <v>1.78</v>
-      </c>
-      <c r="Z17">
-        <v>1.43</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>1.49</v>
-      </c>
-      <c r="AC17">
-        <v>0.98</v>
-      </c>
-      <c r="AD17">
-        <v>2.47</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2931,120 +2931,120 @@
         <v>93</v>
       </c>
       <c r="G18">
+        <v>3.55</v>
+      </c>
+      <c r="H18">
+        <v>2.1</v>
+      </c>
+      <c r="I18">
+        <v>2.75</v>
+      </c>
+      <c r="J18">
+        <v>3.1</v>
+      </c>
+      <c r="K18">
+        <v>3.5</v>
+      </c>
+      <c r="L18">
+        <v>2.2</v>
+      </c>
+      <c r="M18">
+        <v>1.38</v>
+      </c>
+      <c r="N18">
+        <v>2.8</v>
+      </c>
+      <c r="O18">
+        <v>1.05</v>
+      </c>
+      <c r="P18">
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>1.28</v>
+      </c>
+      <c r="R18">
+        <v>3.5</v>
+      </c>
+      <c r="S18">
+        <v>1.85</v>
+      </c>
+      <c r="T18">
+        <v>1.85</v>
+      </c>
+      <c r="U18">
+        <v>1.7</v>
+      </c>
+      <c r="V18">
         <v>2.05</v>
       </c>
-      <c r="H18">
-        <v>2.45</v>
-      </c>
-      <c r="I18">
-        <v>4.33</v>
-      </c>
-      <c r="J18">
+      <c r="W18">
+        <v>1.65</v>
+      </c>
+      <c r="X18">
+        <v>1.25</v>
+      </c>
+      <c r="Y18">
+        <v>1.35</v>
+      </c>
+      <c r="Z18">
+        <v>1.4</v>
+      </c>
+      <c r="AA18">
+        <v>1.25</v>
+      </c>
+      <c r="AB18">
+        <v>1.42</v>
+      </c>
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>2.43</v>
+      </c>
+      <c r="AE18">
+        <v>2.18</v>
+      </c>
+      <c r="AF18">
+        <v>9.5</v>
+      </c>
+      <c r="AG18">
+        <v>1.89</v>
+      </c>
+      <c r="AH18">
+        <v>1.13</v>
+      </c>
+      <c r="AI18">
+        <v>5.85</v>
+      </c>
+      <c r="AJ18">
+        <v>1.28</v>
+      </c>
+      <c r="AK18">
+        <v>3.72</v>
+      </c>
+      <c r="AL18">
+        <v>1.49</v>
+      </c>
+      <c r="AM18">
+        <v>2.63</v>
+      </c>
+      <c r="AN18">
+        <v>1.79</v>
+      </c>
+      <c r="AO18">
+        <v>2.02</v>
+      </c>
+      <c r="AP18">
+        <v>2.22</v>
+      </c>
+      <c r="AQ18">
         <v>1.66</v>
-      </c>
-      <c r="K18">
-        <v>4.33</v>
-      </c>
-      <c r="L18">
-        <v>4.4</v>
-      </c>
-      <c r="M18">
-        <v>1.22</v>
-      </c>
-      <c r="N18">
-        <v>3.75</v>
-      </c>
-      <c r="O18">
-        <v>1.02</v>
-      </c>
-      <c r="P18">
-        <v>12</v>
-      </c>
-      <c r="Q18">
-        <v>1.14</v>
-      </c>
-      <c r="R18">
-        <v>5.5</v>
-      </c>
-      <c r="S18">
-        <v>1.38</v>
-      </c>
-      <c r="T18">
-        <v>2.65</v>
-      </c>
-      <c r="U18">
-        <v>1.45</v>
-      </c>
-      <c r="V18">
-        <v>2.55</v>
-      </c>
-      <c r="W18">
-        <v>1.18</v>
-      </c>
-      <c r="X18">
-        <v>1.17</v>
-      </c>
-      <c r="Y18">
-        <v>2.2</v>
-      </c>
-      <c r="Z18">
-        <v>2.05</v>
-      </c>
-      <c r="AA18">
-        <v>1.4</v>
-      </c>
-      <c r="AB18">
-        <v>1.8</v>
-      </c>
-      <c r="AC18">
-        <v>1.4</v>
-      </c>
-      <c r="AD18">
-        <v>3.2</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>1.16</v>
-      </c>
-      <c r="AI18">
-        <v>5.15</v>
-      </c>
-      <c r="AJ18">
-        <v>1.33</v>
-      </c>
-      <c r="AK18">
-        <v>3.35</v>
-      </c>
-      <c r="AL18">
-        <v>1.56</v>
-      </c>
-      <c r="AM18">
-        <v>2.42</v>
-      </c>
-      <c r="AN18">
-        <v>1.9</v>
-      </c>
-      <c r="AO18">
-        <v>1.9</v>
-      </c>
-      <c r="AP18">
-        <v>2.4</v>
-      </c>
-      <c r="AQ18">
-        <v>1.57</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>45391</v>
@@ -3053,7 +3053,7 @@
         <v>51</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
         <v>70</v>
@@ -3062,115 +3062,115 @@
         <v>94</v>
       </c>
       <c r="G19">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="H19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>3.75</v>
       </c>
       <c r="J19">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="K19">
-        <v>3.52</v>
+        <v>3.1</v>
       </c>
       <c r="L19">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="M19">
+        <v>1.45</v>
+      </c>
+      <c r="N19">
+        <v>2.55</v>
+      </c>
+      <c r="O19">
+        <v>1.07</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
+        <v>1.38</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>2.15</v>
+      </c>
+      <c r="T19">
+        <v>1.65</v>
+      </c>
+      <c r="U19">
+        <v>1.85</v>
+      </c>
+      <c r="V19">
+        <v>1.85</v>
+      </c>
+      <c r="W19">
         <v>1.33</v>
       </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>1.04</v>
-      </c>
-      <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="Q19">
-        <v>1.22</v>
-      </c>
-      <c r="R19">
-        <v>4</v>
-      </c>
-      <c r="S19">
-        <v>1.69</v>
-      </c>
-      <c r="T19">
-        <v>2.04</v>
-      </c>
-      <c r="U19">
+      <c r="X19">
+        <v>1.28</v>
+      </c>
+      <c r="Y19">
         <v>1.62</v>
       </c>
-      <c r="V19">
-        <v>2.2</v>
-      </c>
-      <c r="W19">
-        <v>1.27</v>
-      </c>
-      <c r="X19">
-        <v>1.24</v>
-      </c>
-      <c r="Y19">
-        <v>1.65</v>
-      </c>
       <c r="Z19">
-        <v>1.07</v>
+        <v>1.7</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AB19">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AC19">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AD19">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AE19">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="AF19">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG19">
-        <v>2.68</v>
+        <v>2.17</v>
       </c>
       <c r="AH19">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AI19">
-        <v>3.6</v>
+        <v>4.72</v>
       </c>
       <c r="AJ19">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AK19">
-        <v>2.64</v>
+        <v>3.12</v>
       </c>
       <c r="AL19">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AM19">
-        <v>1.98</v>
+        <v>2.29</v>
       </c>
       <c r="AN19">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
       <c r="AP19">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="AQ19">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3193,115 +3193,115 @@
         <v>95</v>
       </c>
       <c r="G20">
+        <v>3.45</v>
+      </c>
+      <c r="H20">
+        <v>2.05</v>
+      </c>
+      <c r="I20">
         <v>2.88</v>
       </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>3.75</v>
-      </c>
       <c r="J20">
+        <v>3.1</v>
+      </c>
+      <c r="K20">
+        <v>3.3</v>
+      </c>
+      <c r="L20">
         <v>2.3</v>
       </c>
-      <c r="K20">
-        <v>3.25</v>
-      </c>
-      <c r="L20">
-        <v>3.1</v>
-      </c>
       <c r="M20">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O20">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P20">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q20">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="S20">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="T20">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W20">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="X20">
         <v>1.28</v>
       </c>
       <c r="Y20">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="Z20">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AA20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AC20">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AD20">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH20">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="AI20">
-        <v>4.72</v>
+        <v>4.44</v>
       </c>
       <c r="AJ20">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AK20">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="AL20">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AM20">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AO20">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AP20">
-        <v>2.55</v>
+        <v>2.66</v>
       </c>
       <c r="AQ20">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3324,120 +3324,120 @@
         <v>96</v>
       </c>
       <c r="G21">
-        <v>3.55</v>
+        <v>2.05</v>
       </c>
       <c r="H21">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="I21">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="J21">
-        <v>3.1</v>
+        <v>1.66</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>4.38</v>
       </c>
       <c r="L21">
+        <v>4.44</v>
+      </c>
+      <c r="M21">
+        <v>1.22</v>
+      </c>
+      <c r="N21">
+        <v>3.75</v>
+      </c>
+      <c r="O21">
+        <v>1.02</v>
+      </c>
+      <c r="P21">
+        <v>12</v>
+      </c>
+      <c r="Q21">
+        <v>1.14</v>
+      </c>
+      <c r="R21">
+        <v>5.5</v>
+      </c>
+      <c r="S21">
+        <v>1.42</v>
+      </c>
+      <c r="T21">
+        <v>2.74</v>
+      </c>
+      <c r="U21">
+        <v>1.45</v>
+      </c>
+      <c r="V21">
+        <v>2.55</v>
+      </c>
+      <c r="W21">
+        <v>1.18</v>
+      </c>
+      <c r="X21">
+        <v>1.17</v>
+      </c>
+      <c r="Y21">
         <v>2.2</v>
       </c>
-      <c r="M21">
-        <v>1.38</v>
-      </c>
-      <c r="N21">
-        <v>2.8</v>
-      </c>
-      <c r="O21">
-        <v>1.05</v>
-      </c>
-      <c r="P21">
-        <v>9</v>
-      </c>
-      <c r="Q21">
-        <v>1.28</v>
-      </c>
-      <c r="R21">
-        <v>3.5</v>
-      </c>
-      <c r="S21">
+      <c r="Z21">
+        <v>2.05</v>
+      </c>
+      <c r="AA21">
+        <v>1.4</v>
+      </c>
+      <c r="AB21">
+        <v>1.8</v>
+      </c>
+      <c r="AC21">
+        <v>1.4</v>
+      </c>
+      <c r="AD21">
+        <v>3.2</v>
+      </c>
+      <c r="AE21">
+        <v>1.35</v>
+      </c>
+      <c r="AF21">
+        <v>11</v>
+      </c>
+      <c r="AG21">
+        <v>3.82</v>
+      </c>
+      <c r="AH21">
+        <v>1.16</v>
+      </c>
+      <c r="AI21">
+        <v>5.15</v>
+      </c>
+      <c r="AJ21">
+        <v>1.33</v>
+      </c>
+      <c r="AK21">
+        <v>3.35</v>
+      </c>
+      <c r="AL21">
+        <v>1.56</v>
+      </c>
+      <c r="AM21">
+        <v>2.42</v>
+      </c>
+      <c r="AN21">
         <v>1.9</v>
       </c>
-      <c r="T21">
-        <v>1.91</v>
-      </c>
-      <c r="U21">
-        <v>1.7</v>
-      </c>
-      <c r="V21">
-        <v>2.05</v>
-      </c>
-      <c r="W21">
-        <v>1.65</v>
-      </c>
-      <c r="X21">
-        <v>1.25</v>
-      </c>
-      <c r="Y21">
-        <v>1.35</v>
-      </c>
-      <c r="Z21">
-        <v>1.4</v>
-      </c>
-      <c r="AA21">
-        <v>1.25</v>
-      </c>
-      <c r="AB21">
-        <v>1.42</v>
-      </c>
-      <c r="AC21">
-        <v>1.01</v>
-      </c>
-      <c r="AD21">
-        <v>2.43</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>1.13</v>
-      </c>
-      <c r="AI21">
-        <v>5.85</v>
-      </c>
-      <c r="AJ21">
-        <v>1.28</v>
-      </c>
-      <c r="AK21">
-        <v>3.72</v>
-      </c>
-      <c r="AL21">
-        <v>1.49</v>
-      </c>
-      <c r="AM21">
-        <v>2.63</v>
-      </c>
-      <c r="AN21">
-        <v>1.79</v>
-      </c>
       <c r="AO21">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AP21">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="AQ21">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2">
         <v>45391</v>
@@ -3446,7 +3446,7 @@
         <v>51</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>73</v>
@@ -3455,120 +3455,120 @@
         <v>97</v>
       </c>
       <c r="G22">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="H22">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I22">
+        <v>3.75</v>
+      </c>
+      <c r="J22">
+        <v>1.92</v>
+      </c>
+      <c r="K22">
+        <v>3.52</v>
+      </c>
+      <c r="L22">
+        <v>3.28</v>
+      </c>
+      <c r="M22">
+        <v>1.33</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>1.04</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>1.22</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>1.69</v>
+      </c>
+      <c r="T22">
+        <v>2.04</v>
+      </c>
+      <c r="U22">
+        <v>1.62</v>
+      </c>
+      <c r="V22">
         <v>2.2</v>
       </c>
-      <c r="J22">
-        <v>4.33</v>
-      </c>
-      <c r="K22">
-        <v>3.75</v>
-      </c>
-      <c r="L22">
-        <v>1.78</v>
-      </c>
-      <c r="M22">
-        <v>1.38</v>
-      </c>
-      <c r="N22">
-        <v>2.8</v>
-      </c>
-      <c r="O22">
+      <c r="W22">
+        <v>1.27</v>
+      </c>
+      <c r="X22">
+        <v>1.24</v>
+      </c>
+      <c r="Y22">
+        <v>1.65</v>
+      </c>
+      <c r="Z22">
+        <v>1.07</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1.28</v>
+      </c>
+      <c r="AC22">
         <v>1.05</v>
       </c>
-      <c r="P22">
-        <v>9.5</v>
-      </c>
-      <c r="Q22">
-        <v>1.28</v>
-      </c>
-      <c r="R22">
-        <v>3.55</v>
-      </c>
-      <c r="S22">
-        <v>1.9</v>
-      </c>
-      <c r="T22">
-        <v>1.91</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
-      <c r="V22">
-        <v>1.9</v>
-      </c>
-      <c r="W22">
-        <v>2.1</v>
-      </c>
-      <c r="X22">
-        <v>1.22</v>
-      </c>
-      <c r="Y22">
-        <v>1.17</v>
-      </c>
-      <c r="Z22">
-        <v>1.15</v>
-      </c>
-      <c r="AA22">
-        <v>2.1</v>
-      </c>
-      <c r="AB22">
-        <v>1.38</v>
-      </c>
-      <c r="AC22">
-        <v>1.38</v>
-      </c>
       <c r="AD22">
-        <v>2.76</v>
+        <v>2.33</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AH22">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AI22">
-        <v>3.69</v>
+        <v>3.6</v>
       </c>
       <c r="AJ22">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="AK22">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="AL22">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AM22">
         <v>1.98</v>
       </c>
       <c r="AN22">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AO22">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AP22">
-        <v>3.12</v>
+        <v>2.85</v>
       </c>
       <c r="AQ22">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B23" s="2">
         <v>45391</v>
@@ -3577,7 +3577,7 @@
         <v>51</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
@@ -3586,76 +3586,76 @@
         <v>98</v>
       </c>
       <c r="G23">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="H23">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="I23">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L23">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="N23">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="O23">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="R23">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="T23">
-        <v>1.73</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W23">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="X23">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="Y23">
-        <v>1.9</v>
+        <v>3.78</v>
       </c>
       <c r="Z23">
-        <v>1.48</v>
+        <v>2.86</v>
       </c>
       <c r="AA23">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AB23">
-        <v>1.36</v>
+        <v>2.76</v>
       </c>
       <c r="AC23">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="AD23">
-        <v>2.48</v>
+        <v>4.26</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3699,7 +3699,7 @@
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2">
         <v>45391</v>
@@ -3708,7 +3708,7 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
         <v>75</v>
@@ -3717,115 +3717,115 @@
         <v>99</v>
       </c>
       <c r="G24">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="I24">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="J24">
-        <v>1.47</v>
+        <v>2.62</v>
       </c>
       <c r="K24">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
-        <v>6.75</v>
+        <v>2.45</v>
       </c>
       <c r="M24">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="N24">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P24">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q24">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="R24">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="S24">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.51</v>
+        <v>1.91</v>
       </c>
       <c r="U24">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W24">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="X24">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="Y24">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="Z24">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="AA24">
-        <v>1.57</v>
+        <v>0.74</v>
       </c>
       <c r="AB24">
-        <v>1.83</v>
+        <v>1.34</v>
       </c>
       <c r="AC24">
         <v>1.3</v>
       </c>
       <c r="AD24">
-        <v>3.13</v>
+        <v>2.64</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>5.14</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3860,10 +3860,10 @@
         <v>1.35</v>
       </c>
       <c r="K25">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="L25">
-        <v>8.25</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M25">
         <v>1.25</v>
@@ -3920,13 +3920,13 @@
         <v>3.27</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AH25">
         <v>1.25</v>

--- a/Jogos_do_Dia/2024-04-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -181,69 +181,69 @@
     <t>Maribor</t>
   </si>
   <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Harrogate Town</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
     <t>Colchester United</t>
   </si>
   <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
+    <t>Cheltenham Town</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t>The New Saints</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Pontypridd Town AFC</t>
+  </si>
+  <si>
+    <t>Preston North End</t>
+  </si>
+  <si>
+    <t>Plymouth Argyle</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
   </si>
   <si>
     <t>Stevenage</t>
   </si>
   <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Cheltenham Town</t>
-  </si>
-  <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Bristol Rovers</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Plymouth Argyle</t>
-  </si>
-  <si>
-    <t>Preston North End</t>
-  </si>
-  <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Pontypridd Town AFC</t>
-  </si>
-  <si>
-    <t>The New Saints</t>
-  </si>
-  <si>
-    <t>Harrogate Town</t>
-  </si>
-  <si>
     <t>Leeds United</t>
   </si>
   <si>
@@ -253,67 +253,67 @@
     <t>Mura</t>
   </si>
   <si>
+    <t>Forest Green Rovers</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Accrington Stanley</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
     <t>Stockport County</t>
   </si>
   <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
+    <t>Carlisle United</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>Bala Town</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Aberystwyth Town</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
   </si>
   <si>
     <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Accrington Stanley</t>
-  </si>
-  <si>
-    <t>Crewe Alexandra</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>Forest Green Rovers</t>
-  </si>
-  <si>
-    <t>Carlisle United</t>
-  </si>
-  <si>
-    <t>Wigan Athletic</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Exeter City</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>Queens Park Rangers</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>Norwich City</t>
-  </si>
-  <si>
-    <t>Coventry City</t>
-  </si>
-  <si>
-    <t>Aberystwyth Town</t>
-  </si>
-  <si>
-    <t>Bala Town</t>
-  </si>
-  <si>
-    <t>Grimsby Town</t>
   </si>
   <si>
     <t>Sunderland</t>
@@ -844,13 +844,13 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="K2">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
         <v>1.51</v>
@@ -871,7 +871,7 @@
         <v>2.75</v>
       </c>
       <c r="S2">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="T2">
         <v>1.57</v>
@@ -892,10 +892,10 @@
         <v>1.55</v>
       </c>
       <c r="Z2">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AA2">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AB2">
         <v>1.33</v>
@@ -1002,10 +1002,10 @@
         <v>3.64</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1023,10 +1023,10 @@
         <v>2.35</v>
       </c>
       <c r="Z3">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AA3">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AB3">
         <v>1.79</v>
@@ -1038,43 +1038,43 @@
         <v>3.15</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>55</v>
@@ -1097,22 +1097,22 @@
         <v>79</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="H4">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L4">
-        <v>1.83</v>
+        <v>7.5</v>
       </c>
       <c r="M4">
         <v>1.3</v>
@@ -1121,91 +1121,91 @@
         <v>3.4</v>
       </c>
       <c r="O4">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q4">
         <v>1.22</v>
       </c>
       <c r="R4">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="T4">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="U4">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V4">
+        <v>1.83</v>
+      </c>
+      <c r="W4">
+        <v>1.1</v>
+      </c>
+      <c r="X4">
+        <v>1.16</v>
+      </c>
+      <c r="Y4">
+        <v>2.75</v>
+      </c>
+      <c r="Z4">
+        <v>1.9</v>
+      </c>
+      <c r="AA4">
+        <v>0.95</v>
+      </c>
+      <c r="AB4">
+        <v>1.95</v>
+      </c>
+      <c r="AC4">
+        <v>1.16</v>
+      </c>
+      <c r="AD4">
+        <v>3.11</v>
+      </c>
+      <c r="AE4">
+        <v>1.19</v>
+      </c>
+      <c r="AF4">
+        <v>11</v>
+      </c>
+      <c r="AG4">
+        <v>6.09</v>
+      </c>
+      <c r="AH4">
+        <v>1.21</v>
+      </c>
+      <c r="AI4">
+        <v>3.95</v>
+      </c>
+      <c r="AJ4">
+        <v>1.4</v>
+      </c>
+      <c r="AK4">
+        <v>2.7</v>
+      </c>
+      <c r="AL4">
+        <v>1.72</v>
+      </c>
+      <c r="AM4">
+        <v>2</v>
+      </c>
+      <c r="AN4">
         <v>2.2</v>
       </c>
-      <c r="W4">
-        <v>2.25</v>
-      </c>
-      <c r="X4">
-        <v>1.2</v>
-      </c>
-      <c r="Y4">
-        <v>1.17</v>
-      </c>
-      <c r="Z4">
-        <v>1.11</v>
-      </c>
-      <c r="AA4">
-        <v>1.8</v>
-      </c>
-      <c r="AB4">
-        <v>1.5</v>
-      </c>
-      <c r="AC4">
-        <v>1.47</v>
-      </c>
-      <c r="AD4">
-        <v>2.97</v>
-      </c>
-      <c r="AE4">
-        <v>2.53</v>
-      </c>
-      <c r="AF4">
-        <v>8.5</v>
-      </c>
-      <c r="AG4">
-        <v>1.69</v>
-      </c>
-      <c r="AH4">
-        <v>1.22</v>
-      </c>
-      <c r="AI4">
-        <v>3.8</v>
-      </c>
-      <c r="AJ4">
-        <v>1.32</v>
-      </c>
-      <c r="AK4">
-        <v>3.1</v>
-      </c>
-      <c r="AL4">
-        <v>1.55</v>
-      </c>
-      <c r="AM4">
-        <v>2.3</v>
-      </c>
-      <c r="AN4">
-        <v>1.99</v>
-      </c>
       <c r="AO4">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AQ4">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1219,7 +1219,7 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -1228,115 +1228,115 @@
         <v>80</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="H5">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I5">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="J5">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K5">
         <v>3.4</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M5">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O5">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q5">
+        <v>1.29</v>
+      </c>
+      <c r="R5">
+        <v>3.8</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
+        <v>1.9</v>
+      </c>
+      <c r="U5">
+        <v>1.62</v>
+      </c>
+      <c r="V5">
+        <v>2.1</v>
+      </c>
+      <c r="W5">
         <v>1.4</v>
       </c>
-      <c r="R5">
-        <v>2.9</v>
-      </c>
-      <c r="S5">
-        <v>1.91</v>
-      </c>
-      <c r="T5">
-        <v>1.83</v>
-      </c>
-      <c r="U5">
-        <v>1.83</v>
-      </c>
-      <c r="V5">
-        <v>1.83</v>
-      </c>
-      <c r="W5">
-        <v>1.36</v>
-      </c>
       <c r="X5">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y5">
         <v>1.57</v>
       </c>
       <c r="Z5">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AA5">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="AC5">
+        <v>1.3</v>
+      </c>
+      <c r="AD5">
+        <v>2.65</v>
+      </c>
+      <c r="AE5">
+        <v>1.75</v>
+      </c>
+      <c r="AF5">
+        <v>9.1</v>
+      </c>
+      <c r="AG5">
+        <v>2.36</v>
+      </c>
+      <c r="AH5">
+        <v>1.22</v>
+      </c>
+      <c r="AI5">
+        <v>3.8</v>
+      </c>
+      <c r="AJ5">
         <v>1.38</v>
       </c>
-      <c r="AD5">
-        <v>2.79</v>
-      </c>
-      <c r="AE5">
-        <v>1.69</v>
-      </c>
-      <c r="AF5">
-        <v>8</v>
-      </c>
-      <c r="AG5">
+      <c r="AK5">
+        <v>2.8</v>
+      </c>
+      <c r="AL5">
+        <v>1.61</v>
+      </c>
+      <c r="AM5">
+        <v>2.26</v>
+      </c>
+      <c r="AN5">
+        <v>2</v>
+      </c>
+      <c r="AO5">
+        <v>1.8</v>
+      </c>
+      <c r="AP5">
         <v>2.54</v>
       </c>
-      <c r="AH5">
-        <v>1.21</v>
-      </c>
-      <c r="AI5">
-        <v>3.74</v>
-      </c>
-      <c r="AJ5">
-        <v>1.41</v>
-      </c>
-      <c r="AK5">
-        <v>2.6</v>
-      </c>
-      <c r="AL5">
-        <v>1.85</v>
-      </c>
-      <c r="AM5">
-        <v>1.9</v>
-      </c>
-      <c r="AN5">
-        <v>2.18</v>
-      </c>
-      <c r="AO5">
-        <v>1.66</v>
-      </c>
-      <c r="AP5">
-        <v>2.93</v>
-      </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1350,7 +1350,7 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -1359,120 +1359,120 @@
         <v>81</v>
       </c>
       <c r="G6">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="H6">
+        <v>2.2</v>
+      </c>
+      <c r="I6">
+        <v>3.2</v>
+      </c>
+      <c r="J6">
+        <v>2.5</v>
+      </c>
+      <c r="K6">
+        <v>3.4</v>
+      </c>
+      <c r="L6">
+        <v>2.5</v>
+      </c>
+      <c r="M6">
+        <v>1.33</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>1.05</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>1.22</v>
+      </c>
+      <c r="R6">
+        <v>4.2</v>
+      </c>
+      <c r="S6">
+        <v>1.88</v>
+      </c>
+      <c r="T6">
+        <v>1.98</v>
+      </c>
+      <c r="U6">
+        <v>1.55</v>
+      </c>
+      <c r="V6">
+        <v>2.25</v>
+      </c>
+      <c r="W6">
+        <v>1.42</v>
+      </c>
+      <c r="X6">
+        <v>1.25</v>
+      </c>
+      <c r="Y6">
+        <v>1.57</v>
+      </c>
+      <c r="Z6">
+        <v>1.41</v>
+      </c>
+      <c r="AA6">
+        <v>1.45</v>
+      </c>
+      <c r="AB6">
+        <v>1.19</v>
+      </c>
+      <c r="AC6">
+        <v>1.27</v>
+      </c>
+      <c r="AD6">
+        <v>2.46</v>
+      </c>
+      <c r="AE6">
+        <v>1.67</v>
+      </c>
+      <c r="AF6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>2.66</v>
+      </c>
+      <c r="AH6">
+        <v>1.15</v>
+      </c>
+      <c r="AI6">
+        <v>4.75</v>
+      </c>
+      <c r="AJ6">
+        <v>1.25</v>
+      </c>
+      <c r="AK6">
+        <v>3.5</v>
+      </c>
+      <c r="AL6">
+        <v>1.45</v>
+      </c>
+      <c r="AM6">
         <v>2.55</v>
       </c>
-      <c r="I6">
-        <v>5.25</v>
-      </c>
-      <c r="J6">
-        <v>1.48</v>
-      </c>
-      <c r="K6">
-        <v>4.2</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>1.22</v>
-      </c>
-      <c r="N6">
-        <v>3.7</v>
-      </c>
-      <c r="O6">
-        <v>1.02</v>
-      </c>
-      <c r="P6">
-        <v>19</v>
-      </c>
-      <c r="Q6">
-        <v>1.14</v>
-      </c>
-      <c r="R6">
-        <v>5.5</v>
-      </c>
-      <c r="S6">
-        <v>1.39</v>
-      </c>
-      <c r="T6">
-        <v>2.51</v>
-      </c>
-      <c r="U6">
-        <v>1.57</v>
-      </c>
-      <c r="V6">
-        <v>2.2</v>
-      </c>
-      <c r="W6">
-        <v>1.11</v>
-      </c>
-      <c r="X6">
-        <v>1.14</v>
-      </c>
-      <c r="Y6">
-        <v>2.7</v>
-      </c>
-      <c r="Z6">
-        <v>2.25</v>
-      </c>
-      <c r="AA6">
-        <v>1.57</v>
-      </c>
-      <c r="AB6">
-        <v>1.83</v>
-      </c>
-      <c r="AC6">
-        <v>1.3</v>
-      </c>
-      <c r="AD6">
-        <v>3.13</v>
-      </c>
-      <c r="AE6">
-        <v>1.43</v>
-      </c>
-      <c r="AF6">
-        <v>10</v>
-      </c>
-      <c r="AG6">
-        <v>3.26</v>
-      </c>
-      <c r="AH6">
-        <v>1.2</v>
-      </c>
-      <c r="AI6">
-        <v>4</v>
-      </c>
-      <c r="AJ6">
-        <v>1.33</v>
-      </c>
-      <c r="AK6">
-        <v>3</v>
-      </c>
-      <c r="AL6">
-        <v>1.56</v>
-      </c>
-      <c r="AM6">
-        <v>2.34</v>
-      </c>
       <c r="AN6">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AO6">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP6">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>45391</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
@@ -1490,115 +1490,115 @@
         <v>82</v>
       </c>
       <c r="G7">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="H7">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="I7">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J7">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
         <v>3.4</v>
       </c>
       <c r="L7">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="M7">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N7">
-        <v>2.75</v>
+        <v>2.84</v>
       </c>
       <c r="O7">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P7">
         <v>11</v>
       </c>
       <c r="Q7">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="R7">
-        <v>3.3</v>
+        <v>3.99</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="T7">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="U7">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W7">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="X7">
         <v>1.25</v>
       </c>
       <c r="Y7">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="Z7">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA7">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="AB7">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AC7">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AD7">
-        <v>2.85</v>
+        <v>2.58</v>
       </c>
       <c r="AE7">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="AF7">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG7">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="AH7">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AI7">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AJ7">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AK7">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AL7">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AM7">
-        <v>1.8</v>
+        <v>2.32</v>
       </c>
       <c r="AN7">
-        <v>2.55</v>
+        <v>1.94</v>
       </c>
       <c r="AO7">
-        <v>1.48</v>
+        <v>1.85</v>
       </c>
       <c r="AP7">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1612,7 +1612,7 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -1621,115 +1621,115 @@
         <v>83</v>
       </c>
       <c r="G8">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="I8">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J8">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K8">
         <v>3.4</v>
       </c>
       <c r="L8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M8">
         <v>1.36</v>
       </c>
       <c r="N8">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="P8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q8">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="R8">
-        <v>3.99</v>
+        <v>3.75</v>
       </c>
       <c r="S8">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="T8">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U8">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V8">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W8">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X8">
         <v>1.25</v>
       </c>
       <c r="Y8">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="Z8">
-        <v>1.65</v>
+        <v>1.38</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AB8">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AC8">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AD8">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="AE8">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AF8">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AG8">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="AH8">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AI8">
-        <v>4</v>
+        <v>5.14</v>
       </c>
       <c r="AJ8">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AK8">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AL8">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AM8">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="AN8">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="AO8">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="AP8">
-        <v>2.44</v>
+        <v>2.15</v>
       </c>
       <c r="AQ8">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1743,7 +1743,7 @@
         <v>51</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -1752,115 +1752,115 @@
         <v>84</v>
       </c>
       <c r="G9">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="H9">
+        <v>2.55</v>
+      </c>
+      <c r="I9">
+        <v>5.25</v>
+      </c>
+      <c r="J9">
+        <v>1.4</v>
+      </c>
+      <c r="K9">
+        <v>4.1</v>
+      </c>
+      <c r="L9">
+        <v>7.5</v>
+      </c>
+      <c r="M9">
+        <v>1.22</v>
+      </c>
+      <c r="N9">
+        <v>3.7</v>
+      </c>
+      <c r="O9">
+        <v>1.02</v>
+      </c>
+      <c r="P9">
+        <v>19</v>
+      </c>
+      <c r="Q9">
+        <v>1.14</v>
+      </c>
+      <c r="R9">
+        <v>5.5</v>
+      </c>
+      <c r="S9">
+        <v>1.53</v>
+      </c>
+      <c r="T9">
+        <v>2.35</v>
+      </c>
+      <c r="U9">
+        <v>1.57</v>
+      </c>
+      <c r="V9">
         <v>2.2</v>
       </c>
-      <c r="I9">
-        <v>3.2</v>
-      </c>
-      <c r="J9">
-        <v>2.5</v>
-      </c>
-      <c r="K9">
-        <v>3.5</v>
-      </c>
-      <c r="L9">
-        <v>2.62</v>
-      </c>
-      <c r="M9">
+      <c r="W9">
+        <v>1.11</v>
+      </c>
+      <c r="X9">
+        <v>1.14</v>
+      </c>
+      <c r="Y9">
+        <v>2.7</v>
+      </c>
+      <c r="Z9">
+        <v>2.29</v>
+      </c>
+      <c r="AA9">
+        <v>1.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.83</v>
+      </c>
+      <c r="AC9">
+        <v>1.3</v>
+      </c>
+      <c r="AD9">
+        <v>3.13</v>
+      </c>
+      <c r="AE9">
+        <v>1.43</v>
+      </c>
+      <c r="AF9">
+        <v>10</v>
+      </c>
+      <c r="AG9">
+        <v>3.26</v>
+      </c>
+      <c r="AH9">
+        <v>1.2</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
         <v>1.33</v>
       </c>
-      <c r="N9">
+      <c r="AK9">
         <v>3</v>
       </c>
-      <c r="O9">
-        <v>1.05</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9">
-        <v>1.22</v>
-      </c>
-      <c r="R9">
-        <v>4.2</v>
-      </c>
-      <c r="S9">
-        <v>1.73</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>1.55</v>
-      </c>
-      <c r="V9">
-        <v>2.25</v>
-      </c>
-      <c r="W9">
-        <v>1.42</v>
-      </c>
-      <c r="X9">
-        <v>1.25</v>
-      </c>
-      <c r="Y9">
-        <v>1.57</v>
-      </c>
-      <c r="Z9">
-        <v>1.48</v>
-      </c>
-      <c r="AA9">
-        <v>1.38</v>
-      </c>
-      <c r="AB9">
-        <v>1.19</v>
-      </c>
-      <c r="AC9">
-        <v>1.27</v>
-      </c>
-      <c r="AD9">
-        <v>2.46</v>
-      </c>
-      <c r="AE9">
-        <v>1.67</v>
-      </c>
-      <c r="AF9">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG9">
-        <v>2.66</v>
-      </c>
-      <c r="AH9">
-        <v>1.15</v>
-      </c>
-      <c r="AI9">
-        <v>4.75</v>
-      </c>
-      <c r="AJ9">
-        <v>1.25</v>
-      </c>
-      <c r="AK9">
-        <v>3.5</v>
-      </c>
       <c r="AL9">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AM9">
-        <v>2.55</v>
+        <v>2.34</v>
       </c>
       <c r="AN9">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="AO9">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP9">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="AQ9">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1874,7 +1874,7 @@
         <v>51</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>61</v>
@@ -1883,115 +1883,115 @@
         <v>85</v>
       </c>
       <c r="G10">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="H10">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="I10">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="J10">
+        <v>2.2</v>
+      </c>
+      <c r="K10">
+        <v>3.15</v>
+      </c>
+      <c r="L10">
+        <v>2.78</v>
+      </c>
+      <c r="M10">
+        <v>1.5</v>
+      </c>
+      <c r="N10">
         <v>2.5</v>
       </c>
-      <c r="K10">
-        <v>3.5</v>
-      </c>
-      <c r="L10">
-        <v>2.62</v>
-      </c>
-      <c r="M10">
+      <c r="O10">
+        <v>1.07</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>1.4</v>
+      </c>
+      <c r="R10">
+        <v>2.9</v>
+      </c>
+      <c r="S10">
+        <v>1.89</v>
+      </c>
+      <c r="T10">
+        <v>1.7</v>
+      </c>
+      <c r="U10">
+        <v>1.83</v>
+      </c>
+      <c r="V10">
+        <v>1.83</v>
+      </c>
+      <c r="W10">
         <v>1.36</v>
       </c>
-      <c r="N10">
-        <v>2.9</v>
-      </c>
-      <c r="O10">
-        <v>1.05</v>
-      </c>
-      <c r="P10">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <v>1.29</v>
-      </c>
-      <c r="R10">
-        <v>3.8</v>
-      </c>
-      <c r="S10">
-        <v>1.75</v>
-      </c>
-      <c r="T10">
-        <v>1.95</v>
-      </c>
-      <c r="U10">
-        <v>1.62</v>
-      </c>
-      <c r="V10">
-        <v>2.1</v>
-      </c>
-      <c r="W10">
-        <v>1.4</v>
-      </c>
       <c r="X10">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y10">
         <v>1.57</v>
       </c>
       <c r="Z10">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AA10">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AB10">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AC10">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AD10">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="AE10">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AF10">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="AG10">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="AH10">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AI10">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="AJ10">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AK10">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AL10">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="AM10">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AO10">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AP10">
-        <v>2.54</v>
+        <v>2.93</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2005,7 +2005,7 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -2014,22 +2014,22 @@
         <v>86</v>
       </c>
       <c r="G11">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="J11">
-        <v>1.44</v>
+        <v>3.9</v>
       </c>
       <c r="K11">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
         <v>1.3</v>
@@ -2038,91 +2038,91 @@
         <v>3.4</v>
       </c>
       <c r="O11">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q11">
         <v>1.22</v>
       </c>
       <c r="R11">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="S11">
+        <v>1.73</v>
+      </c>
+      <c r="T11">
+        <v>1.98</v>
+      </c>
+      <c r="U11">
+        <v>1.62</v>
+      </c>
+      <c r="V11">
+        <v>2.2</v>
+      </c>
+      <c r="W11">
+        <v>2.25</v>
+      </c>
+      <c r="X11">
+        <v>1.2</v>
+      </c>
+      <c r="Y11">
+        <v>1.17</v>
+      </c>
+      <c r="Z11">
+        <v>1.05</v>
+      </c>
+      <c r="AA11">
+        <v>1.86</v>
+      </c>
+      <c r="AB11">
+        <v>1.5</v>
+      </c>
+      <c r="AC11">
+        <v>1.47</v>
+      </c>
+      <c r="AD11">
+        <v>2.97</v>
+      </c>
+      <c r="AE11">
+        <v>2.53</v>
+      </c>
+      <c r="AF11">
+        <v>8.5</v>
+      </c>
+      <c r="AG11">
+        <v>1.69</v>
+      </c>
+      <c r="AH11">
+        <v>1.22</v>
+      </c>
+      <c r="AI11">
+        <v>3.8</v>
+      </c>
+      <c r="AJ11">
+        <v>1.32</v>
+      </c>
+      <c r="AK11">
+        <v>3.1</v>
+      </c>
+      <c r="AL11">
+        <v>1.55</v>
+      </c>
+      <c r="AM11">
+        <v>2.3</v>
+      </c>
+      <c r="AN11">
+        <v>1.99</v>
+      </c>
+      <c r="AO11">
+        <v>1.73</v>
+      </c>
+      <c r="AP11">
+        <v>2.6</v>
+      </c>
+      <c r="AQ11">
         <v>1.44</v>
-      </c>
-      <c r="T11">
-        <v>2.59</v>
-      </c>
-      <c r="U11">
-        <v>1.83</v>
-      </c>
-      <c r="V11">
-        <v>1.83</v>
-      </c>
-      <c r="W11">
-        <v>1.1</v>
-      </c>
-      <c r="X11">
-        <v>1.16</v>
-      </c>
-      <c r="Y11">
-        <v>2.75</v>
-      </c>
-      <c r="Z11">
-        <v>1.85</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="AB11">
-        <v>1.95</v>
-      </c>
-      <c r="AC11">
-        <v>1.16</v>
-      </c>
-      <c r="AD11">
-        <v>3.11</v>
-      </c>
-      <c r="AE11">
-        <v>1.19</v>
-      </c>
-      <c r="AF11">
-        <v>11</v>
-      </c>
-      <c r="AG11">
-        <v>6.09</v>
-      </c>
-      <c r="AH11">
-        <v>1.21</v>
-      </c>
-      <c r="AI11">
-        <v>3.95</v>
-      </c>
-      <c r="AJ11">
-        <v>1.4</v>
-      </c>
-      <c r="AK11">
-        <v>2.7</v>
-      </c>
-      <c r="AL11">
-        <v>1.72</v>
-      </c>
-      <c r="AM11">
-        <v>2</v>
-      </c>
-      <c r="AN11">
-        <v>2.2</v>
-      </c>
-      <c r="AO11">
-        <v>1.58</v>
-      </c>
-      <c r="AP11">
-        <v>3</v>
-      </c>
-      <c r="AQ11">
-        <v>1.34</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2154,13 +2154,13 @@
         <v>4.33</v>
       </c>
       <c r="J12">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L12">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M12">
         <v>1.53</v>
@@ -2181,10 +2181,10 @@
         <v>2.6</v>
       </c>
       <c r="S12">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="T12">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U12">
         <v>2.1</v>
@@ -2202,10 +2202,10 @@
         <v>1.68</v>
       </c>
       <c r="Z12">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AA12">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AB12">
         <v>1.4</v>
@@ -2285,13 +2285,13 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <v>1.36</v>
@@ -2312,10 +2312,10 @@
         <v>3.75</v>
       </c>
       <c r="S13">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U13">
         <v>1.68</v>
@@ -2333,7 +2333,7 @@
         <v>1.78</v>
       </c>
       <c r="Z13">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AA13">
         <v>1</v>
@@ -2416,13 +2416,13 @@
         <v>4.75</v>
       </c>
       <c r="J14">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L14">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>1.36</v>
@@ -2443,10 +2443,10 @@
         <v>3.5</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="T14">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="U14">
         <v>1.8</v>
@@ -2464,10 +2464,10 @@
         <v>2.05</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA14">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB14">
         <v>1.44</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>45391</v>
@@ -2529,7 +2529,7 @@
         <v>51</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -2538,120 +2538,120 @@
         <v>90</v>
       </c>
       <c r="G15">
+        <v>3.45</v>
+      </c>
+      <c r="H15">
+        <v>2.05</v>
+      </c>
+      <c r="I15">
+        <v>2.88</v>
+      </c>
+      <c r="J15">
         <v>3.2</v>
       </c>
-      <c r="H15">
-        <v>2.15</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
         <v>3.3</v>
       </c>
-      <c r="J15">
-        <v>2.4</v>
-      </c>
-      <c r="K15">
-        <v>3.4</v>
-      </c>
       <c r="L15">
+        <v>2.3</v>
+      </c>
+      <c r="M15">
+        <v>1.38</v>
+      </c>
+      <c r="N15">
         <v>2.8</v>
       </c>
-      <c r="M15">
-        <v>1.37</v>
-      </c>
-      <c r="N15">
-        <v>2.85</v>
-      </c>
       <c r="O15">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P15">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q15">
         <v>1.3</v>
       </c>
       <c r="R15">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U15">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="V15">
         <v>2.1</v>
       </c>
       <c r="W15">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="X15">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="Y15">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="Z15">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AA15">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AC15">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AD15">
-        <v>2.54</v>
+        <v>2.45</v>
       </c>
       <c r="AE15">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AF15">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG15">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AH15">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AI15">
-        <v>5.02</v>
+        <v>4.44</v>
       </c>
       <c r="AJ15">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AK15">
-        <v>3.28</v>
+        <v>2.97</v>
       </c>
       <c r="AL15">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AM15">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="AN15">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="AO15">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="AP15">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="AQ15">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>45391</v>
@@ -2660,7 +2660,7 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
@@ -2669,120 +2669,120 @@
         <v>91</v>
       </c>
       <c r="G16">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="H16">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="I16">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="L16">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="O16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q16">
+        <v>1.1</v>
+      </c>
+      <c r="R16">
+        <v>5.5</v>
+      </c>
+      <c r="S16">
+        <v>1.4</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>1.92</v>
+      </c>
+      <c r="V16">
+        <v>1.75</v>
+      </c>
+      <c r="W16">
+        <v>1.02</v>
+      </c>
+      <c r="X16">
+        <v>1.08</v>
+      </c>
+      <c r="Y16">
+        <v>3.78</v>
+      </c>
+      <c r="Z16">
+        <v>2.87</v>
+      </c>
+      <c r="AA16">
+        <v>1.57</v>
+      </c>
+      <c r="AB16">
+        <v>2.76</v>
+      </c>
+      <c r="AC16">
+        <v>1.5</v>
+      </c>
+      <c r="AD16">
+        <v>4.26</v>
+      </c>
+      <c r="AE16">
+        <v>1.09</v>
+      </c>
+      <c r="AF16">
+        <v>13.5</v>
+      </c>
+      <c r="AG16">
+        <v>8</v>
+      </c>
+      <c r="AH16">
         <v>1.33</v>
       </c>
-      <c r="R16">
-        <v>3.25</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>1.7</v>
-      </c>
-      <c r="U16">
-        <v>1.85</v>
-      </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>1.25</v>
-      </c>
-      <c r="X16">
-        <v>1.25</v>
-      </c>
-      <c r="Y16">
-        <v>1.9</v>
-      </c>
-      <c r="Z16">
-        <v>1.48</v>
-      </c>
-      <c r="AA16">
-        <v>1.25</v>
-      </c>
-      <c r="AB16">
-        <v>1.36</v>
-      </c>
-      <c r="AC16">
-        <v>1.12</v>
-      </c>
-      <c r="AD16">
-        <v>2.48</v>
-      </c>
-      <c r="AE16">
-        <v>1.52</v>
-      </c>
-      <c r="AF16">
-        <v>9.9</v>
-      </c>
-      <c r="AG16">
-        <v>2.99</v>
-      </c>
-      <c r="AH16">
-        <v>1.18</v>
-      </c>
       <c r="AI16">
-        <v>4.84</v>
+        <v>3</v>
       </c>
       <c r="AJ16">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AK16">
-        <v>3.14</v>
+        <v>2.23</v>
       </c>
       <c r="AL16">
-        <v>1.57</v>
+        <v>1.96</v>
       </c>
       <c r="AM16">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AN16">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="AO16">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="AP16">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="AQ16">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="17" spans="1:43">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>45391</v>
@@ -2791,7 +2791,7 @@
         <v>51</v>
       </c>
       <c r="D17">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -2800,115 +2800,115 @@
         <v>92</v>
       </c>
       <c r="G17">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="H17">
         <v>2.15</v>
       </c>
       <c r="I17">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="J17">
-        <v>4.36</v>
+        <v>2.7</v>
       </c>
       <c r="K17">
-        <v>3.72</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="M17">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="N17">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="O17">
         <v>1.05</v>
       </c>
       <c r="P17">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Q17">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="R17">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="S17">
+        <v>1.74</v>
+      </c>
+      <c r="T17">
+        <v>1.97</v>
+      </c>
+      <c r="U17">
+        <v>1.72</v>
+      </c>
+      <c r="V17">
+        <v>2.1</v>
+      </c>
+      <c r="W17">
+        <v>1.47</v>
+      </c>
+      <c r="X17">
+        <v>1.25</v>
+      </c>
+      <c r="Y17">
+        <v>1.53</v>
+      </c>
+      <c r="Z17">
+        <v>1.29</v>
+      </c>
+      <c r="AA17">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AB17">
+        <v>1.34</v>
+      </c>
+      <c r="AC17">
+        <v>1.2</v>
+      </c>
+      <c r="AD17">
+        <v>2.54</v>
+      </c>
+      <c r="AE17">
         <v>1.9</v>
       </c>
-      <c r="T17">
-        <v>1.9</v>
-      </c>
-      <c r="U17">
-        <v>1.8</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
-      <c r="W17">
-        <v>2.1</v>
-      </c>
-      <c r="X17">
-        <v>1.22</v>
-      </c>
-      <c r="Y17">
+      <c r="AF17">
+        <v>9.4</v>
+      </c>
+      <c r="AG17">
+        <v>2.17</v>
+      </c>
+      <c r="AH17">
         <v>1.17</v>
       </c>
-      <c r="Z17">
-        <v>1.15</v>
-      </c>
-      <c r="AA17">
-        <v>2.1</v>
-      </c>
-      <c r="AB17">
-        <v>1.38</v>
-      </c>
-      <c r="AC17">
-        <v>1.38</v>
-      </c>
-      <c r="AD17">
-        <v>2.76</v>
-      </c>
-      <c r="AE17">
-        <v>2.77</v>
-      </c>
-      <c r="AF17">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AG17">
-        <v>1.6</v>
-      </c>
-      <c r="AH17">
-        <v>1.28</v>
-      </c>
       <c r="AI17">
-        <v>3.69</v>
+        <v>5.02</v>
       </c>
       <c r="AJ17">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="AK17">
-        <v>2.56</v>
+        <v>3.28</v>
       </c>
       <c r="AL17">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AM17">
-        <v>1.98</v>
+        <v>2.41</v>
       </c>
       <c r="AN17">
-        <v>2.33</v>
+        <v>1.89</v>
       </c>
       <c r="AO17">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="AP17">
-        <v>3.12</v>
+        <v>2.36</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2931,120 +2931,120 @@
         <v>93</v>
       </c>
       <c r="G18">
-        <v>3.55</v>
+        <v>2.05</v>
       </c>
       <c r="H18">
+        <v>2.45</v>
+      </c>
+      <c r="I18">
+        <v>4.33</v>
+      </c>
+      <c r="J18">
+        <v>1.62</v>
+      </c>
+      <c r="K18">
+        <v>4.2</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>1.22</v>
+      </c>
+      <c r="N18">
+        <v>3.75</v>
+      </c>
+      <c r="O18">
+        <v>1.02</v>
+      </c>
+      <c r="P18">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>1.14</v>
+      </c>
+      <c r="R18">
+        <v>5.5</v>
+      </c>
+      <c r="S18">
+        <v>1.5</v>
+      </c>
+      <c r="T18">
+        <v>2.4</v>
+      </c>
+      <c r="U18">
+        <v>1.45</v>
+      </c>
+      <c r="V18">
+        <v>2.55</v>
+      </c>
+      <c r="W18">
+        <v>1.18</v>
+      </c>
+      <c r="X18">
+        <v>1.17</v>
+      </c>
+      <c r="Y18">
+        <v>2.2</v>
+      </c>
+      <c r="Z18">
         <v>2.1</v>
       </c>
-      <c r="I18">
-        <v>2.75</v>
-      </c>
-      <c r="J18">
-        <v>3.1</v>
-      </c>
-      <c r="K18">
-        <v>3.5</v>
-      </c>
-      <c r="L18">
-        <v>2.2</v>
-      </c>
-      <c r="M18">
-        <v>1.38</v>
-      </c>
-      <c r="N18">
-        <v>2.8</v>
-      </c>
-      <c r="O18">
-        <v>1.05</v>
-      </c>
-      <c r="P18">
-        <v>9</v>
-      </c>
-      <c r="Q18">
-        <v>1.28</v>
-      </c>
-      <c r="R18">
-        <v>3.5</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>1.85</v>
-      </c>
-      <c r="U18">
-        <v>1.7</v>
-      </c>
-      <c r="V18">
-        <v>2.05</v>
-      </c>
-      <c r="W18">
-        <v>1.65</v>
-      </c>
-      <c r="X18">
-        <v>1.25</v>
-      </c>
-      <c r="Y18">
+      <c r="AA18">
+        <v>1.33</v>
+      </c>
+      <c r="AB18">
+        <v>1.8</v>
+      </c>
+      <c r="AC18">
+        <v>1.4</v>
+      </c>
+      <c r="AD18">
+        <v>3.2</v>
+      </c>
+      <c r="AE18">
         <v>1.35</v>
       </c>
-      <c r="Z18">
-        <v>1.4</v>
-      </c>
-      <c r="AA18">
-        <v>1.25</v>
-      </c>
-      <c r="AB18">
-        <v>1.42</v>
-      </c>
-      <c r="AC18">
-        <v>1.01</v>
-      </c>
-      <c r="AD18">
-        <v>2.43</v>
-      </c>
-      <c r="AE18">
-        <v>2.18</v>
-      </c>
       <c r="AF18">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG18">
-        <v>1.89</v>
+        <v>3.82</v>
       </c>
       <c r="AH18">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="AI18">
-        <v>5.85</v>
+        <v>5.15</v>
       </c>
       <c r="AJ18">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AK18">
-        <v>3.72</v>
+        <v>3.35</v>
       </c>
       <c r="AL18">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AM18">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="AN18">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AO18">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AP18">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="AQ18">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="2">
         <v>45391</v>
@@ -3053,7 +3053,7 @@
         <v>51</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>70</v>
@@ -3062,115 +3062,115 @@
         <v>94</v>
       </c>
       <c r="G19">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I19">
         <v>3.75</v>
       </c>
       <c r="J19">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K19">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="N19">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O19">
+        <v>1.04</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>1.22</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>2.1</v>
+      </c>
+      <c r="T19">
+        <v>1.67</v>
+      </c>
+      <c r="U19">
+        <v>1.62</v>
+      </c>
+      <c r="V19">
+        <v>2.2</v>
+      </c>
+      <c r="W19">
+        <v>1.27</v>
+      </c>
+      <c r="X19">
+        <v>1.24</v>
+      </c>
+      <c r="Y19">
+        <v>1.65</v>
+      </c>
+      <c r="Z19">
         <v>1.07</v>
       </c>
-      <c r="P19">
-        <v>8</v>
-      </c>
-      <c r="Q19">
-        <v>1.38</v>
-      </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1.28</v>
+      </c>
+      <c r="AC19">
+        <v>1.05</v>
+      </c>
+      <c r="AD19">
+        <v>2.33</v>
+      </c>
+      <c r="AE19">
+        <v>1.58</v>
+      </c>
+      <c r="AF19">
+        <v>8.9</v>
+      </c>
+      <c r="AG19">
+        <v>2.68</v>
+      </c>
+      <c r="AH19">
+        <v>1.25</v>
+      </c>
+      <c r="AI19">
+        <v>3.6</v>
+      </c>
+      <c r="AJ19">
+        <v>1.4</v>
+      </c>
+      <c r="AK19">
+        <v>2.64</v>
+      </c>
+      <c r="AL19">
+        <v>1.7</v>
+      </c>
+      <c r="AM19">
+        <v>1.98</v>
+      </c>
+      <c r="AN19">
         <v>2.15</v>
       </c>
-      <c r="T19">
-        <v>1.65</v>
-      </c>
-      <c r="U19">
-        <v>1.85</v>
-      </c>
-      <c r="V19">
-        <v>1.85</v>
-      </c>
-      <c r="W19">
-        <v>1.33</v>
-      </c>
-      <c r="X19">
-        <v>1.28</v>
-      </c>
-      <c r="Y19">
-        <v>1.62</v>
-      </c>
-      <c r="Z19">
-        <v>1.7</v>
-      </c>
-      <c r="AA19">
-        <v>0.9</v>
-      </c>
-      <c r="AB19">
-        <v>1.2</v>
-      </c>
-      <c r="AC19">
-        <v>1.15</v>
-      </c>
-      <c r="AD19">
-        <v>2.35</v>
-      </c>
-      <c r="AE19">
-        <v>1.91</v>
-      </c>
-      <c r="AF19">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG19">
-        <v>2.17</v>
-      </c>
-      <c r="AH19">
-        <v>1.19</v>
-      </c>
-      <c r="AI19">
-        <v>4.72</v>
-      </c>
-      <c r="AJ19">
+      <c r="AO19">
+        <v>1.59</v>
+      </c>
+      <c r="AP19">
+        <v>2.85</v>
+      </c>
+      <c r="AQ19">
         <v>1.37</v>
-      </c>
-      <c r="AK19">
-        <v>3.12</v>
-      </c>
-      <c r="AL19">
-        <v>1.62</v>
-      </c>
-      <c r="AM19">
-        <v>2.29</v>
-      </c>
-      <c r="AN19">
-        <v>2</v>
-      </c>
-      <c r="AO19">
-        <v>1.8</v>
-      </c>
-      <c r="AP19">
-        <v>2.55</v>
-      </c>
-      <c r="AQ19">
-        <v>1.52</v>
       </c>
     </row>
     <row r="20" spans="1:43">
@@ -3193,115 +3193,115 @@
         <v>95</v>
       </c>
       <c r="G20">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="H20">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="J20">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K20">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L20">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
+        <v>1.45</v>
+      </c>
+      <c r="N20">
+        <v>2.55</v>
+      </c>
+      <c r="O20">
+        <v>1.07</v>
+      </c>
+      <c r="P20">
+        <v>8</v>
+      </c>
+      <c r="Q20">
         <v>1.38</v>
       </c>
-      <c r="N20">
-        <v>2.8</v>
-      </c>
-      <c r="O20">
-        <v>1.06</v>
-      </c>
-      <c r="P20">
-        <v>8.5</v>
-      </c>
-      <c r="Q20">
-        <v>1.3</v>
-      </c>
       <c r="R20">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="S20">
+        <v>2.19</v>
+      </c>
+      <c r="T20">
+        <v>1.6</v>
+      </c>
+      <c r="U20">
         <v>1.85</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>1.85</v>
       </c>
-      <c r="U20">
-        <v>1.67</v>
-      </c>
-      <c r="V20">
-        <v>2.1</v>
-      </c>
       <c r="W20">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="X20">
         <v>1.28</v>
       </c>
       <c r="Y20">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="Z20">
-        <v>1.3</v>
+        <v>1.76</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AB20">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AC20">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AD20">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AE20">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="AF20">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG20">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="AH20">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AI20">
-        <v>4.44</v>
+        <v>4.72</v>
       </c>
       <c r="AJ20">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AK20">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="AL20">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AM20">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="AN20">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AP20">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="AQ20">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3324,120 +3324,120 @@
         <v>96</v>
       </c>
       <c r="G21">
+        <v>3.55</v>
+      </c>
+      <c r="H21">
+        <v>2.1</v>
+      </c>
+      <c r="I21">
+        <v>2.75</v>
+      </c>
+      <c r="J21">
+        <v>3.6</v>
+      </c>
+      <c r="K21">
+        <v>3.3</v>
+      </c>
+      <c r="L21">
+        <v>2.1</v>
+      </c>
+      <c r="M21">
+        <v>1.38</v>
+      </c>
+      <c r="N21">
+        <v>2.8</v>
+      </c>
+      <c r="O21">
+        <v>1.05</v>
+      </c>
+      <c r="P21">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>1.28</v>
+      </c>
+      <c r="R21">
+        <v>3.5</v>
+      </c>
+      <c r="S21">
+        <v>1.98</v>
+      </c>
+      <c r="T21">
+        <v>1.88</v>
+      </c>
+      <c r="U21">
+        <v>1.7</v>
+      </c>
+      <c r="V21">
         <v>2.05</v>
       </c>
-      <c r="H21">
-        <v>2.45</v>
-      </c>
-      <c r="I21">
-        <v>4.33</v>
-      </c>
-      <c r="J21">
+      <c r="W21">
+        <v>1.65</v>
+      </c>
+      <c r="X21">
+        <v>1.25</v>
+      </c>
+      <c r="Y21">
+        <v>1.35</v>
+      </c>
+      <c r="Z21">
+        <v>1.38</v>
+      </c>
+      <c r="AA21">
+        <v>1.24</v>
+      </c>
+      <c r="AB21">
+        <v>1.42</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>2.43</v>
+      </c>
+      <c r="AE21">
+        <v>2.18</v>
+      </c>
+      <c r="AF21">
+        <v>9.5</v>
+      </c>
+      <c r="AG21">
+        <v>1.89</v>
+      </c>
+      <c r="AH21">
+        <v>1.13</v>
+      </c>
+      <c r="AI21">
+        <v>5.85</v>
+      </c>
+      <c r="AJ21">
+        <v>1.28</v>
+      </c>
+      <c r="AK21">
+        <v>3.72</v>
+      </c>
+      <c r="AL21">
+        <v>1.49</v>
+      </c>
+      <c r="AM21">
+        <v>2.63</v>
+      </c>
+      <c r="AN21">
+        <v>1.79</v>
+      </c>
+      <c r="AO21">
+        <v>2.02</v>
+      </c>
+      <c r="AP21">
+        <v>2.22</v>
+      </c>
+      <c r="AQ21">
         <v>1.66</v>
-      </c>
-      <c r="K21">
-        <v>4.38</v>
-      </c>
-      <c r="L21">
-        <v>4.44</v>
-      </c>
-      <c r="M21">
-        <v>1.22</v>
-      </c>
-      <c r="N21">
-        <v>3.75</v>
-      </c>
-      <c r="O21">
-        <v>1.02</v>
-      </c>
-      <c r="P21">
-        <v>12</v>
-      </c>
-      <c r="Q21">
-        <v>1.14</v>
-      </c>
-      <c r="R21">
-        <v>5.5</v>
-      </c>
-      <c r="S21">
-        <v>1.42</v>
-      </c>
-      <c r="T21">
-        <v>2.74</v>
-      </c>
-      <c r="U21">
-        <v>1.45</v>
-      </c>
-      <c r="V21">
-        <v>2.55</v>
-      </c>
-      <c r="W21">
-        <v>1.18</v>
-      </c>
-      <c r="X21">
-        <v>1.17</v>
-      </c>
-      <c r="Y21">
-        <v>2.2</v>
-      </c>
-      <c r="Z21">
-        <v>2.05</v>
-      </c>
-      <c r="AA21">
-        <v>1.4</v>
-      </c>
-      <c r="AB21">
-        <v>1.8</v>
-      </c>
-      <c r="AC21">
-        <v>1.4</v>
-      </c>
-      <c r="AD21">
-        <v>3.2</v>
-      </c>
-      <c r="AE21">
-        <v>1.35</v>
-      </c>
-      <c r="AF21">
-        <v>11</v>
-      </c>
-      <c r="AG21">
-        <v>3.82</v>
-      </c>
-      <c r="AH21">
-        <v>1.16</v>
-      </c>
-      <c r="AI21">
-        <v>5.15</v>
-      </c>
-      <c r="AJ21">
-        <v>1.33</v>
-      </c>
-      <c r="AK21">
-        <v>3.35</v>
-      </c>
-      <c r="AL21">
-        <v>1.56</v>
-      </c>
-      <c r="AM21">
-        <v>2.42</v>
-      </c>
-      <c r="AN21">
-        <v>1.9</v>
-      </c>
-      <c r="AO21">
-        <v>1.9</v>
-      </c>
-      <c r="AP21">
-        <v>2.4</v>
-      </c>
-      <c r="AQ21">
-        <v>1.57</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
         <v>45391</v>
@@ -3446,7 +3446,7 @@
         <v>51</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
         <v>73</v>
@@ -3455,120 +3455,120 @@
         <v>97</v>
       </c>
       <c r="G22">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="H22">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I22">
+        <v>2.2</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
         <v>3.75</v>
       </c>
-      <c r="J22">
-        <v>1.92</v>
-      </c>
-      <c r="K22">
-        <v>3.52</v>
-      </c>
       <c r="L22">
-        <v>3.28</v>
+        <v>1.67</v>
       </c>
       <c r="M22">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P22">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q22">
+        <v>1.28</v>
+      </c>
+      <c r="R22">
+        <v>3.55</v>
+      </c>
+      <c r="S22">
+        <v>1.93</v>
+      </c>
+      <c r="T22">
+        <v>1.93</v>
+      </c>
+      <c r="U22">
+        <v>1.8</v>
+      </c>
+      <c r="V22">
+        <v>1.9</v>
+      </c>
+      <c r="W22">
+        <v>2.1</v>
+      </c>
+      <c r="X22">
         <v>1.22</v>
       </c>
-      <c r="R22">
-        <v>4</v>
-      </c>
-      <c r="S22">
-        <v>1.69</v>
-      </c>
-      <c r="T22">
-        <v>2.04</v>
-      </c>
-      <c r="U22">
-        <v>1.62</v>
-      </c>
-      <c r="V22">
-        <v>2.2</v>
-      </c>
-      <c r="W22">
-        <v>1.27</v>
-      </c>
-      <c r="X22">
+      <c r="Y22">
+        <v>1.17</v>
+      </c>
+      <c r="Z22">
         <v>1.24</v>
       </c>
-      <c r="Y22">
-        <v>1.65</v>
-      </c>
-      <c r="Z22">
-        <v>1.07</v>
-      </c>
       <c r="AA22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB22">
+        <v>1.38</v>
+      </c>
+      <c r="AC22">
+        <v>1.38</v>
+      </c>
+      <c r="AD22">
+        <v>2.76</v>
+      </c>
+      <c r="AE22">
+        <v>2.77</v>
+      </c>
+      <c r="AF22">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG22">
+        <v>1.6</v>
+      </c>
+      <c r="AH22">
         <v>1.28</v>
       </c>
-      <c r="AC22">
-        <v>1.05</v>
-      </c>
-      <c r="AD22">
-        <v>2.33</v>
-      </c>
-      <c r="AE22">
-        <v>1.58</v>
-      </c>
-      <c r="AF22">
-        <v>8.9</v>
-      </c>
-      <c r="AG22">
-        <v>2.68</v>
-      </c>
-      <c r="AH22">
-        <v>1.25</v>
-      </c>
       <c r="AI22">
-        <v>3.6</v>
+        <v>3.69</v>
       </c>
       <c r="AJ22">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="AK22">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="AL22">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AM22">
         <v>1.98</v>
       </c>
       <c r="AN22">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="AO22">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AP22">
-        <v>2.85</v>
+        <v>3.12</v>
       </c>
       <c r="AQ22">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <v>45391</v>
@@ -3577,7 +3577,7 @@
         <v>51</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
         <v>74</v>
@@ -3586,120 +3586,120 @@
         <v>98</v>
       </c>
       <c r="G23">
+        <v>2.6</v>
+      </c>
+      <c r="H23">
+        <v>2.15</v>
+      </c>
+      <c r="I23">
+        <v>4.33</v>
+      </c>
+      <c r="J23">
+        <v>1.73</v>
+      </c>
+      <c r="K23">
+        <v>3.8</v>
+      </c>
+      <c r="L23">
+        <v>4.5</v>
+      </c>
+      <c r="M23">
+        <v>1.39</v>
+      </c>
+      <c r="N23">
+        <v>2.8</v>
+      </c>
+      <c r="O23">
+        <v>1.05</v>
+      </c>
+      <c r="P23">
+        <v>11</v>
+      </c>
+      <c r="Q23">
+        <v>1.33</v>
+      </c>
+      <c r="R23">
+        <v>3.25</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
+        <v>1.75</v>
+      </c>
+      <c r="U23">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
+        <v>1.9</v>
+      </c>
+      <c r="W23">
+        <v>1.25</v>
+      </c>
+      <c r="X23">
+        <v>1.25</v>
+      </c>
+      <c r="Y23">
+        <v>1.9</v>
+      </c>
+      <c r="Z23">
+        <v>1.45</v>
+      </c>
+      <c r="AA23">
+        <v>1.24</v>
+      </c>
+      <c r="AB23">
+        <v>1.36</v>
+      </c>
+      <c r="AC23">
+        <v>1.12</v>
+      </c>
+      <c r="AD23">
+        <v>2.48</v>
+      </c>
+      <c r="AE23">
+        <v>1.52</v>
+      </c>
+      <c r="AF23">
+        <v>9.9</v>
+      </c>
+      <c r="AG23">
+        <v>2.99</v>
+      </c>
+      <c r="AH23">
+        <v>1.18</v>
+      </c>
+      <c r="AI23">
+        <v>4.84</v>
+      </c>
+      <c r="AJ23">
+        <v>1.29</v>
+      </c>
+      <c r="AK23">
+        <v>3.14</v>
+      </c>
+      <c r="AL23">
         <v>1.57</v>
       </c>
-      <c r="H23">
-        <v>2.88</v>
-      </c>
-      <c r="I23">
-        <v>8</v>
-      </c>
-      <c r="J23">
-        <v>1.2</v>
-      </c>
-      <c r="K23">
-        <v>5.75</v>
-      </c>
-      <c r="L23">
-        <v>10</v>
-      </c>
-      <c r="M23">
-        <v>1.22</v>
-      </c>
-      <c r="N23">
-        <v>3.8</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>1.1</v>
-      </c>
-      <c r="R23">
-        <v>5.5</v>
-      </c>
-      <c r="S23">
-        <v>1.4</v>
-      </c>
-      <c r="T23">
-        <v>2.75</v>
-      </c>
-      <c r="U23">
-        <v>1.92</v>
-      </c>
-      <c r="V23">
-        <v>1.75</v>
-      </c>
-      <c r="W23">
-        <v>1.02</v>
-      </c>
-      <c r="X23">
-        <v>1.08</v>
-      </c>
-      <c r="Y23">
-        <v>3.78</v>
-      </c>
-      <c r="Z23">
-        <v>2.86</v>
-      </c>
-      <c r="AA23">
-        <v>1.69</v>
-      </c>
-      <c r="AB23">
-        <v>2.76</v>
-      </c>
-      <c r="AC23">
-        <v>1.5</v>
-      </c>
-      <c r="AD23">
-        <v>4.26</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
       <c r="AM23">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2">
         <v>45391</v>
@@ -3717,115 +3717,115 @@
         <v>99</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I24">
+        <v>3.75</v>
+      </c>
+      <c r="J24">
+        <v>2.38</v>
+      </c>
+      <c r="K24">
         <v>3.4</v>
       </c>
-      <c r="J24">
-        <v>2.62</v>
-      </c>
-      <c r="K24">
-        <v>3.6</v>
-      </c>
       <c r="L24">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="M24">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O24">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q24">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="R24">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="U24">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V24">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="X24">
         <v>1.25</v>
       </c>
       <c r="Y24">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Z24">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AA24">
-        <v>0.74</v>
+        <v>2</v>
       </c>
       <c r="AB24">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AC24">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AD24">
-        <v>2.64</v>
+        <v>2.85</v>
       </c>
       <c r="AE24">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="AF24">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AG24">
-        <v>2.05</v>
+        <v>3.05</v>
       </c>
       <c r="AH24">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AI24">
-        <v>5.14</v>
+        <v>3.4</v>
       </c>
       <c r="AJ24">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="AK24">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="AL24">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AM24">
-        <v>2.65</v>
+        <v>1.8</v>
       </c>
       <c r="AN24">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="AO24">
-        <v>1.98</v>
+        <v>1.48</v>
       </c>
       <c r="AP24">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="AQ24">
-        <v>1.58</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="25" spans="1:43">
@@ -3857,13 +3857,13 @@
         <v>6.5</v>
       </c>
       <c r="J25">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="K25">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="M25">
         <v>1.25</v>
@@ -3884,10 +3884,10 @@
         <v>5</v>
       </c>
       <c r="S25">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="T25">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="U25">
         <v>1.85</v>
@@ -3905,7 +3905,7 @@
         <v>3.25</v>
       </c>
       <c r="Z25">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AA25">
         <v>1</v>
